--- a/data/trans_orig/P56S_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P56S_R-Dificultad-trans_orig.xlsx
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5134</v>
+        <v>4397</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01903913730793667</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1050084192925402</v>
+        <v>0.08993622053723441</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4689</v>
+        <v>4192</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01308510530046492</v>
@@ -884,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06591426447577446</v>
+        <v>0.05891618315552742</v>
       </c>
     </row>
     <row r="7">
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3884</v>
+        <v>4427</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03768363500056647</v>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1745886069371954</v>
+        <v>0.1989709457712433</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -969,19 +969,19 @@
         <v>5191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2021</v>
+        <v>1993</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10749</v>
+        <v>10635</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1061745767416918</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04134049901302107</v>
+        <v>0.04076541340374921</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2198473778018342</v>
+        <v>0.2175103850913143</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -990,19 +990,19 @@
         <v>6030</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2063</v>
+        <v>2650</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11207</v>
+        <v>12185</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08475568297813099</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02900347503935192</v>
+        <v>0.03724911111870752</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1575217796486073</v>
+        <v>0.1712695132077793</v>
       </c>
     </row>
     <row r="9">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7192</v>
+        <v>6666</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04497676164972732</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1470820281489776</v>
+        <v>0.1363301266168025</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7497</v>
+        <v>6709</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03091136183020546</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1053822272606149</v>
+        <v>0.09429661997703127</v>
       </c>
     </row>
     <row r="10">
@@ -1082,7 +1082,7 @@
         <v>21411</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18365</v>
+        <v>17822</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>22249</v>
@@ -1091,7 +1091,7 @@
         <v>0.9623163649994335</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8254113930628036</v>
+        <v>0.8010290542287556</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1103,19 +1103,19 @@
         <v>36399</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29453</v>
+        <v>29895</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41663</v>
+        <v>41940</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7444270445355351</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6023640534225947</v>
+        <v>0.6114106854939764</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8520925072683895</v>
+        <v>0.8577507834651391</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -1124,19 +1124,19 @@
         <v>57809</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>49864</v>
+        <v>50593</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>63868</v>
+        <v>63130</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8125666859040291</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7008855926092692</v>
+        <v>0.711140686683202</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8977281698938981</v>
+        <v>0.8873527769936657</v>
       </c>
     </row>
     <row r="11">
@@ -1166,19 +1166,19 @@
         <v>4175</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1103</v>
+        <v>1203</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9709</v>
+        <v>10361</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08538247976510907</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02255600651821644</v>
+        <v>0.02459587985640364</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1985718585489699</v>
+        <v>0.2118982038440622</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1187,19 +1187,19 @@
         <v>4175</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1112</v>
+        <v>1197</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10142</v>
+        <v>9642</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05868116398716944</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01563714741298692</v>
+        <v>0.01682037364884049</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1425542135512257</v>
+        <v>0.1355253724163963</v>
       </c>
     </row>
     <row r="12">
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5043</v>
+        <v>5067</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1189292991504006</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3577607486180927</v>
+        <v>0.3594206389314428</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1500,19 +1500,19 @@
         <v>3387</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7853</v>
+        <v>8918</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1448668463635954</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04644756424158395</v>
+        <v>0.04670994652634195</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3358884948871208</v>
+        <v>0.3814385679534394</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1521,19 +1521,19 @@
         <v>5063</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1982</v>
+        <v>1934</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10603</v>
+        <v>10363</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.135110331665961</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05289748747321549</v>
+        <v>0.05159862952665077</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2829231145520041</v>
+        <v>0.2765179288574452</v>
       </c>
     </row>
     <row r="18">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>7361</v>
+        <v>8121</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09984629762997982</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3148748438997158</v>
+        <v>0.3473557439471925</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1587,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>7315</v>
+        <v>7960</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06228870352425397</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1951938442318341</v>
+        <v>0.212405419336282</v>
       </c>
     </row>
     <row r="19">
@@ -1613,19 +1613,19 @@
         <v>9821</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6238</v>
+        <v>6310</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12433</v>
+        <v>12487</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6966643483777571</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4425218913816467</v>
+        <v>0.4475978173363601</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8819558494426084</v>
+        <v>0.8857751284220345</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -1634,19 +1634,19 @@
         <v>12927</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7438</v>
+        <v>7465</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>17527</v>
+        <v>17438</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.5529508418804555</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3181518135487511</v>
+        <v>0.3192926905240056</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7496994451687461</v>
+        <v>0.7458628461742067</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>23</v>
@@ -1655,19 +1655,19 @@
         <v>22748</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>17085</v>
+        <v>16841</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28104</v>
+        <v>28280</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6070092664055086</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4559034696537649</v>
+        <v>0.4493904446376689</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7499307170044146</v>
+        <v>0.7546128634720686</v>
       </c>
     </row>
     <row r="20">
@@ -1684,19 +1684,19 @@
         <v>2600</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6202</v>
+        <v>6264</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1844063524718422</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05797647617380981</v>
+        <v>0.05742912665523958</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4399667306942453</v>
+        <v>0.4443828580441133</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1705,19 +1705,19 @@
         <v>4730</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1180</v>
+        <v>2205</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10044</v>
+        <v>10277</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2023360141259693</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05048817466174371</v>
+        <v>0.09433577730683207</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.429595416768336</v>
+        <v>0.4395704790064343</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1726,19 +1726,19 @@
         <v>7330</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3082</v>
+        <v>3222</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>12844</v>
+        <v>13038</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1955916984042764</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0822374741606572</v>
+        <v>0.08598157292232547</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3427308724665881</v>
+        <v>0.3479031209573169</v>
       </c>
     </row>
     <row r="21">
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>6080</v>
+        <v>5758</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07867570131436435</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4515615237446061</v>
+        <v>0.4276208588717015</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5297</v>
+        <v>4705</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04653582925042838</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2326866126132604</v>
+        <v>0.2066892999166444</v>
       </c>
     </row>
     <row r="26">
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5754</v>
+        <v>5700</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08620981626617699</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4273642683158937</v>
+        <v>0.4233347108734632</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5789</v>
+        <v>5637</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0509921770311712</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2543107437643819</v>
+        <v>0.2476308272696037</v>
       </c>
     </row>
     <row r="27">
@@ -2144,7 +2144,7 @@
         <v>8531</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5964</v>
+        <v>5586</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>9300</v>
@@ -2153,7 +2153,7 @@
         <v>0.9172673267051215</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6412508199915642</v>
+        <v>0.6006893228295884</v>
       </c>
       <c r="I28" s="6" t="n">
         <v>1</v>
@@ -2165,7 +2165,7 @@
         <v>11245</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>6856</v>
+        <v>6828</v>
       </c>
       <c r="M28" s="5" t="n">
         <v>13465</v>
@@ -2174,7 +2174,7 @@
         <v>0.8351144824194586</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5092042290827414</v>
+        <v>0.5070847109931742</v>
       </c>
       <c r="P28" s="6" t="n">
         <v>1</v>
@@ -2186,19 +2186,19 @@
         <v>19775</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>15324</v>
+        <v>15424</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>21997</v>
+        <v>22000</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.8686748048686922</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6731275641295654</v>
+        <v>0.6775188788022041</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9662770153073115</v>
+        <v>0.9664000448572679</v>
       </c>
     </row>
     <row r="29">
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3336</v>
+        <v>3714</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08273267329487849</v>
@@ -2227,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3587491800084355</v>
+        <v>0.3993106771704091</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5006</v>
+        <v>3991</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03379718884970819</v>
@@ -2261,7 +2261,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2198933354780313</v>
+        <v>0.1753209989618691</v>
       </c>
     </row>
     <row r="30">
@@ -2648,7 +2648,7 @@
         <v>4381</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>1059</v>
+        <v>1192</v>
       </c>
       <c r="M37" s="5" t="n">
         <v>5498</v>
@@ -2657,7 +2657,7 @@
         <v>0.7969253179958848</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.192527555123063</v>
+        <v>0.2168613051281055</v>
       </c>
       <c r="P37" s="6" t="n">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>5203</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2018</v>
+        <v>2040</v>
       </c>
       <c r="T37" s="5" t="n">
         <v>6319</v>
@@ -2678,7 +2678,7 @@
         <v>0.8233213153890133</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3193328050420514</v>
+        <v>0.3228138568859771</v>
       </c>
       <c r="W37" s="6" t="n">
         <v>1</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>4439</v>
+        <v>4306</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2030746820041152</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8074724448769419</v>
+        <v>0.7831386948718917</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>4301</v>
+        <v>4279</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1766786846109867</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6806671949579486</v>
+        <v>0.6771861431140184</v>
       </c>
     </row>
     <row r="39">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>4722</v>
+        <v>3813</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.01020324131974033</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.05175150940802506</v>
+        <v>0.04179309923302798</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>4674</v>
+        <v>4553</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.006760292018782389</v>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.03394445288955904</v>
+        <v>0.0330662650264486</v>
       </c>
     </row>
     <row r="43">
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>5500</v>
+        <v>6133</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01161136494153931</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.06028064331509254</v>
+        <v>0.06722419708089974</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>5339</v>
+        <v>5636</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.007693262883980831</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03877490355562668</v>
+        <v>0.04093122755902483</v>
       </c>
     </row>
     <row r="44">
@@ -3059,16 +3059,16 @@
         <v>813</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>6752</v>
+        <v>6677</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.05412353366537447</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01749897222198628</v>
+        <v>0.01749798406137337</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1453023615894987</v>
+        <v>0.1436989537232005</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>9</v>
@@ -3077,19 +3077,19 @@
         <v>9739</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>5196</v>
+        <v>4718</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>17251</v>
+        <v>17270</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.106744886534403</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.05694452892369961</v>
+        <v>0.05170714244142374</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1890717294683932</v>
+        <v>0.1892868410759099</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>12</v>
@@ -3098,19 +3098,19 @@
         <v>12254</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>6632</v>
+        <v>6581</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>20485</v>
+        <v>20525</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.08898850457709637</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.04816172522657027</v>
+        <v>0.04778925038087817</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1487593367863811</v>
+        <v>0.1490469759594315</v>
       </c>
     </row>
     <row r="45">
@@ -3140,19 +3140,19 @@
         <v>4534</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>1177</v>
+        <v>1148</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>10516</v>
+        <v>10430</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.04968876564910139</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.01290568089916501</v>
+        <v>0.01258022129531609</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.1152628581974624</v>
+        <v>0.114315575645278</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>4</v>
@@ -3161,19 +3161,19 @@
         <v>4534</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1147</v>
+        <v>1163</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>10393</v>
+        <v>10410</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.0329219465966054</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.008327962653113512</v>
+        <v>0.008445532475567365</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.07547029612434229</v>
+        <v>0.07559660670205591</v>
       </c>
     </row>
     <row r="46">
@@ -3190,19 +3190,19 @@
         <v>40583</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>35524</v>
+        <v>35024</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>43995</v>
+        <v>43883</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.8733737457674664</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.7644974255827963</v>
+        <v>0.7537469281039593</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.9468080246458215</v>
+        <v>0.9443942644370799</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>59</v>
@@ -3211,19 +3211,19 @@
         <v>64953</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>55866</v>
+        <v>55173</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>73210</v>
+        <v>73008</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.7119094352739882</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.6123143843979221</v>
+        <v>0.6047204069095073</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.8024082712393874</v>
+        <v>0.8001967640631481</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>103</v>
@@ -3232,19 +3232,19 @@
         <v>105536</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>94083</v>
+        <v>93732</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>114709</v>
+        <v>115019</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.7663934386923572</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.6832235705699938</v>
+        <v>0.6806692138559469</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.833005795303511</v>
+        <v>0.8352568578644769</v>
       </c>
     </row>
     <row r="47">
@@ -3261,19 +3261,19 @@
         <v>3369</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>852</v>
+        <v>1525</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>8412</v>
+        <v>9037</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.07250272056715908</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.0183307705443064</v>
+        <v>0.0328292383707826</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1810365401380803</v>
+        <v>0.1944802847888645</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>9</v>
@@ -3282,19 +3282,19 @@
         <v>10022</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>4733</v>
+        <v>5107</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>17471</v>
+        <v>17377</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1098423062812278</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.05187587566810475</v>
+        <v>0.05596989098476819</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1914862712204389</v>
+        <v>0.190453350910136</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>13</v>
@@ -3303,19 +3303,19 @@
         <v>13391</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>7412</v>
+        <v>7483</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>21993</v>
+        <v>22931</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.09724255523117778</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.05382788099655002</v>
+        <v>0.05434078999124323</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1597117231719035</v>
+        <v>0.1665191386424807</v>
       </c>
     </row>
     <row r="48">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4969</v>
+        <v>5009</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01439091130730462</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07209983686874284</v>
+        <v>0.07267914199758264</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4720</v>
+        <v>4378</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01049594387936565</v>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04994887502802636</v>
+        <v>0.04632822107682985</v>
       </c>
     </row>
     <row r="5">
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5647</v>
+        <v>5683</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04521996225876614</v>
@@ -3769,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2207961613335314</v>
+        <v>0.2221981209587423</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -3778,19 +3778,19 @@
         <v>6240</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2155</v>
+        <v>2161</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12353</v>
+        <v>12532</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09053565079610036</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.03126525504801819</v>
+        <v>0.03135926329477789</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.179226757633198</v>
+        <v>0.1818235604430842</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -3799,19 +3799,19 @@
         <v>7397</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3120</v>
+        <v>3143</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13786</v>
+        <v>13943</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07827074782654668</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03301384963855233</v>
+        <v>0.03326270558104935</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1458824090182234</v>
+        <v>0.1475393198050753</v>
       </c>
     </row>
     <row r="7">
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5418</v>
+        <v>5218</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0403579521566091</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2118145846528087</v>
+        <v>0.2039998224395375</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -3896,19 +3896,19 @@
         <v>6416</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2258</v>
+        <v>2304</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13728</v>
+        <v>12777</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09309227568261462</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03275373677972571</v>
+        <v>0.03342932006028999</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1991773125226098</v>
+        <v>0.1853844949591004</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -3917,19 +3917,19 @@
         <v>7449</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3216</v>
+        <v>3168</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14730</v>
+        <v>13962</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07881948446862598</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03402940443213278</v>
+        <v>0.03352603512761133</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1558763020975833</v>
+        <v>0.1477423681145692</v>
       </c>
     </row>
     <row r="9">
@@ -3949,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6751</v>
+        <v>6759</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.08920830953552308</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2639646926805815</v>
+        <v>0.2642716322448864</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -3967,19 +3967,19 @@
         <v>8780</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4318</v>
+        <v>4383</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15417</v>
+        <v>16397</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1273817849069521</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.06264473171683503</v>
+        <v>0.06359713101884007</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2236861721717696</v>
+        <v>0.2379051637134995</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>10</v>
@@ -3988,19 +3988,19 @@
         <v>11061</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5581</v>
+        <v>5524</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>18773</v>
+        <v>18768</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1170499553231316</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05905580772824919</v>
+        <v>0.05845881970038157</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1986498779123814</v>
+        <v>0.1986022895649679</v>
       </c>
     </row>
     <row r="10">
@@ -4017,19 +4017,19 @@
         <v>20113</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14624</v>
+        <v>14707</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23428</v>
+        <v>23436</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7863521561299323</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5717743613891491</v>
+        <v>0.5750075878442075</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9159919022219126</v>
+        <v>0.9162905596258748</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -4038,19 +4038,19 @@
         <v>42418</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33383</v>
+        <v>34137</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50284</v>
+        <v>50635</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6154269126551852</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4843410466810239</v>
+        <v>0.4952906910366408</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7295530522703494</v>
+        <v>0.7346453527747763</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -4059,19 +4059,19 @@
         <v>62530</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53473</v>
+        <v>53019</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>72230</v>
+        <v>70837</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6616886289377915</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5658437871595783</v>
+        <v>0.5610467972466666</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7643345124111356</v>
+        <v>0.7495858458741864</v>
       </c>
     </row>
     <row r="11">
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5329</v>
+        <v>5072</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0388616199191694</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2083557245221391</v>
+        <v>0.1983061046080036</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -4109,19 +4109,19 @@
         <v>4078</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>986</v>
+        <v>968</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10457</v>
+        <v>9431</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05917246465184316</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0143094046481161</v>
+        <v>0.01403868545379175</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.151718980229664</v>
+        <v>0.1368337717045759</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -4130,19 +4130,19 @@
         <v>5072</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1936</v>
+        <v>1927</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10980</v>
+        <v>11617</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05367523956453858</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02048688067268815</v>
+        <v>0.0203956178009273</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1161891871219264</v>
+        <v>0.1229289899206507</v>
       </c>
     </row>
     <row r="12">
@@ -4297,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5491</v>
+        <v>5534</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01449168334980379</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07176559797736126</v>
+        <v>0.07232504258748937</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -4318,7 +4318,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>4724</v>
+        <v>6719</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01083548611601766</v>
@@ -4327,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04616630625958451</v>
+        <v>0.06566653107816624</v>
       </c>
     </row>
     <row r="15">
@@ -4357,19 +4357,19 @@
         <v>5257</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2063</v>
+        <v>2073</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>11684</v>
+        <v>11547</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06870448164735363</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02696947875848485</v>
+        <v>0.02710011422245175</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1527166491183257</v>
+        <v>0.1509171544945234</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -4378,19 +4378,19 @@
         <v>5257</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1983</v>
+        <v>2008</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10987</v>
+        <v>10645</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05137059919323796</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0193766667520831</v>
+        <v>0.01962751778950597</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1073718537820637</v>
+        <v>0.1040341020101816</v>
       </c>
     </row>
     <row r="16">
@@ -4457,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7340</v>
+        <v>7534</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08687189666800246</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2843128854125986</v>
+        <v>0.2918056601579126</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -4475,19 +4475,19 @@
         <v>6636</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2204</v>
+        <v>3133</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13090</v>
+        <v>13085</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08672885585035052</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02881060016961073</v>
+        <v>0.04094557675521254</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1710905334014604</v>
+        <v>0.1710299122944301</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -4496,19 +4496,19 @@
         <v>8878</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4370</v>
+        <v>4358</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16626</v>
+        <v>16021</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08676494451094249</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04270692961872441</v>
+        <v>0.04259075141939733</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.162482234273989</v>
+        <v>0.1565640064282343</v>
       </c>
     </row>
     <row r="18">
@@ -4528,7 +4528,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5994</v>
+        <v>4905</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03864646392455771</v>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2321597499886806</v>
+        <v>0.1899933144563917</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -4546,19 +4546,19 @@
         <v>9931</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4529</v>
+        <v>5418</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>17215</v>
+        <v>16995</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1298024593516723</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05919250931431453</v>
+        <v>0.07080863699831412</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2249967977575892</v>
+        <v>0.2221237938419128</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>10</v>
@@ -4567,19 +4567,19 @@
         <v>10929</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5690</v>
+        <v>5391</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>18786</v>
+        <v>18836</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1068041443679165</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05560743614711493</v>
+        <v>0.05267981163358262</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1835831122127533</v>
+        <v>0.1840771580563966</v>
       </c>
     </row>
     <row r="19">
@@ -4596,19 +4596,19 @@
         <v>21515</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15963</v>
+        <v>16465</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24703</v>
+        <v>24750</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.833356768932795</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6183272415979408</v>
+        <v>0.6377424501361993</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9568376903359935</v>
+        <v>0.9586767798425393</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -4617,19 +4617,19 @@
         <v>49373</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40144</v>
+        <v>40715</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57163</v>
+        <v>57171</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6453090777564172</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.5246916990627737</v>
+        <v>0.5321574344854731</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.747136281288201</v>
+        <v>0.747240164839386</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>62</v>
@@ -4638,19 +4638,19 @@
         <v>70887</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>60530</v>
+        <v>59537</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>79695</v>
+        <v>79565</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6927528033542615</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5915303968015352</v>
+        <v>0.5818336565189979</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7788271037271025</v>
+        <v>0.7775538510578273</v>
       </c>
     </row>
     <row r="20">
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4958</v>
+        <v>4799</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04112487047464483</v>
@@ -4679,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.192051828702565</v>
+        <v>0.1858970515834664</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -4688,19 +4688,19 @@
         <v>4205</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>988</v>
+        <v>1062</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>9538</v>
+        <v>10402</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0549634420444026</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01291371413479509</v>
+        <v>0.01387638005577681</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1246625099803693</v>
+        <v>0.1359625838313478</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -4709,19 +4709,19 @@
         <v>5267</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2029</v>
+        <v>2017</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11259</v>
+        <v>11561</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0514720224576239</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01983336272404064</v>
+        <v>0.01971068307666777</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1100320099971853</v>
+        <v>0.1129823201108313</v>
       </c>
     </row>
     <row r="21">
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6340</v>
+        <v>6069</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09749583591166304</v>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3057957783970212</v>
+        <v>0.2927003016065672</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -4884,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>9386</v>
+        <v>10381</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05193281179528466</v>
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2401370687453037</v>
+        <v>0.2656056755444945</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3</v>
@@ -4902,19 +4902,19 @@
         <v>4051</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>992</v>
+        <v>1001</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11036</v>
+        <v>10758</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06772492079114412</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0165794302312071</v>
+        <v>0.01673158683525046</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1844947024836679</v>
+        <v>0.1798420952269932</v>
       </c>
     </row>
     <row r="24">
@@ -4934,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5514</v>
+        <v>5540</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.05097428186035394</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2659289752172181</v>
+        <v>0.2671980770074373</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -4952,19 +4952,19 @@
         <v>4407</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1087</v>
+        <v>1103</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10125</v>
+        <v>9951</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1127645949860213</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0278181863056025</v>
+        <v>0.02821545704860839</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2590567123361972</v>
+        <v>0.2545992791236287</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -4973,19 +4973,19 @@
         <v>5464</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2102</v>
+        <v>2093</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11443</v>
+        <v>11230</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09134812014281488</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03513349687630516</v>
+        <v>0.03499057040881723</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.191298453239835</v>
+        <v>0.1877313371645821</v>
       </c>
     </row>
     <row r="25">
@@ -5018,7 +5018,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7519</v>
+        <v>7098</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05466413200382844</v>
@@ -5027,7 +5027,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.192378761709984</v>
+        <v>0.1816156753546311</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -5039,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6636</v>
+        <v>6983</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03571758603788158</v>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.110935032441096</v>
+        <v>0.1167457518958295</v>
       </c>
     </row>
     <row r="26">
@@ -5078,19 +5078,19 @@
         <v>7212</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2972</v>
+        <v>3044</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14188</v>
+        <v>13121</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1845299260286339</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07602884353532895</v>
+        <v>0.07787135335014606</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3630131308646327</v>
+        <v>0.335706628536842</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -5099,19 +5099,19 @@
         <v>7212</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3154</v>
+        <v>3026</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14921</v>
+        <v>14772</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1205719960765141</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05273254158370603</v>
+        <v>0.05058918971881665</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2494336867496376</v>
+        <v>0.2469447174349915</v>
       </c>
     </row>
     <row r="27">
@@ -5128,19 +5128,19 @@
         <v>3219</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>993</v>
+        <v>973</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7450</v>
+        <v>7822</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1552622772161222</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04790715409280247</v>
+        <v>0.04693674848426903</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3593533835670523</v>
+        <v>0.3772946953285613</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3</v>
@@ -5149,19 +5149,19 @@
         <v>3184</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>977</v>
+        <v>992</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>7878</v>
+        <v>7991</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08147039912719532</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02500361682373316</v>
+        <v>0.02538572198360581</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2015530414459469</v>
+        <v>0.204455511030108</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6</v>
@@ -5170,19 +5170,19 @@
         <v>6403</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>2889</v>
+        <v>2219</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>12304</v>
+        <v>13259</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1070466071245615</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04828917102191435</v>
+        <v>0.03709684465448396</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2056873093969652</v>
+        <v>0.2216525121598991</v>
       </c>
     </row>
     <row r="28">
@@ -5199,19 +5199,19 @@
         <v>14436</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9573</v>
+        <v>9738</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18469</v>
+        <v>18625</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6962676050118608</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4617406613847274</v>
+        <v>0.469671644284024</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8908066565906692</v>
+        <v>0.898330848634743</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>15</v>
@@ -5220,19 +5220,19 @@
         <v>16944</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>10511</v>
+        <v>10869</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>23722</v>
+        <v>24246</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4335243945645917</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2689174851944927</v>
+        <v>0.2780786015859778</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6069249890574038</v>
+        <v>0.6203469060404557</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>28</v>
@@ -5241,19 +5241,19 @@
         <v>31380</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>22532</v>
+        <v>23900</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>39336</v>
+        <v>39964</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5245909885357718</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.376677057513765</v>
+        <v>0.3995387386675828</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6575960542369793</v>
+        <v>0.6680863018350989</v>
       </c>
     </row>
     <row r="29">
@@ -5283,19 +5283,19 @@
         <v>3170</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>882</v>
+        <v>836</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7840</v>
+        <v>8546</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08111374149444472</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0225657165351225</v>
+        <v>0.02138451416092355</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2005925830911086</v>
+        <v>0.2186571914620701</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -5304,19 +5304,19 @@
         <v>3170</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>920</v>
+        <v>902</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8410</v>
+        <v>8854</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05299978129131197</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01537895035153743</v>
+        <v>0.01507795270876278</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1405988085389816</v>
+        <v>0.1480203858852476</v>
       </c>
     </row>
     <row r="30">
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>4258</v>
+        <v>4680</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1725607927329116</v>
@@ -5420,7 +5420,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6676388375980375</v>
+        <v>0.7337474966310884</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -5445,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4962</v>
+        <v>5686</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04233832428616006</v>
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1909000176536826</v>
+        <v>0.2187497629373159</v>
       </c>
     </row>
     <row r="32">
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4523</v>
+        <v>6025</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05651242207268851</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2305878073039115</v>
+        <v>0.3071282360973372</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1</v>
@@ -5508,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5414</v>
+        <v>5737</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.04264692450503912</v>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2082894704191569</v>
+        <v>0.2207135148065046</v>
       </c>
     </row>
     <row r="33">
@@ -5550,7 +5550,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>5503</v>
+        <v>6507</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.0554263183362099</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2805105677345335</v>
+        <v>0.331711050217016</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>5406</v>
+        <v>5583</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.04182729967999328</v>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2079573632364449</v>
+        <v>0.2147876055225899</v>
       </c>
     </row>
     <row r="34">
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3871</v>
+        <v>3975</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.161846522740466</v>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.6068909781089623</v>
+        <v>0.6233115572435125</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -5668,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7688</v>
+        <v>6667</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1115934221707588</v>
@@ -5677,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3918827108915033</v>
+        <v>0.3398633938025085</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3</v>
@@ -5686,19 +5686,19 @@
         <v>3221</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>957</v>
+        <v>0</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>8060</v>
+        <v>7863</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1239231758454444</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03682756856767332</v>
+        <v>0</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3100478258074819</v>
+        <v>0.3024897166415039</v>
       </c>
     </row>
     <row r="36">
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5270</v>
+        <v>5500</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.05561751809446908</v>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2686364538603256</v>
+        <v>0.2803546996141655</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>1</v>
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>5428</v>
+        <v>5722</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04197158798611778</v>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2088046451704099</v>
+        <v>0.2201118305482772</v>
       </c>
     </row>
     <row r="37">
@@ -5778,7 +5778,7 @@
         <v>4245</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1222</v>
+        <v>1229</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>6378</v>
@@ -5787,7 +5787,7 @@
         <v>0.6655926845266223</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1916227013431739</v>
+        <v>0.1926693546529392</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1</v>
@@ -5799,19 +5799,19 @@
         <v>12143</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>7555</v>
+        <v>7610</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>16394</v>
+        <v>16323</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6190023287963786</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3851247294084681</v>
+        <v>0.3879346122551586</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8357096043427588</v>
+        <v>0.8320623429850355</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>14</v>
@@ -5820,19 +5820,19 @@
         <v>16388</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>10952</v>
+        <v>11165</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>21285</v>
+        <v>20941</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6304334166945881</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4213011876996463</v>
+        <v>0.4295084808982415</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8187952504117559</v>
+        <v>0.8055883358394794</v>
       </c>
     </row>
     <row r="38">
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>6317</v>
+        <v>6261</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.101847990529495</v>
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3220289110088763</v>
+        <v>0.3191638128316214</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>2</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>7013</v>
+        <v>6208</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.07685927100265721</v>
@@ -5895,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2697849022546399</v>
+        <v>0.2388025434428828</v>
       </c>
     </row>
     <row r="39">
@@ -5990,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5771</v>
+        <v>5035</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01401918089039714</v>
@@ -5999,7 +5999,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07350904978936494</v>
+        <v>0.06413002357449679</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>4486</v>
+        <v>5014</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.004858881622312431</v>
@@ -6020,7 +6020,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02197710553831456</v>
+        <v>0.02456117445006561</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -6032,7 +6032,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7169</v>
+        <v>7272</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.007403193124880538</v>
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02536461189317002</v>
+        <v>0.02572909935956334</v>
       </c>
     </row>
     <row r="41">
@@ -6061,7 +6061,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7017</v>
+        <v>6626</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02574857343612543</v>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.08938866097377103</v>
+        <v>0.08440028601997759</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>3</v>
@@ -6079,19 +6079,19 @@
         <v>4247</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1110</v>
+        <v>1103</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>12340</v>
+        <v>11661</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02080558471364465</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.005436800054339649</v>
+        <v>0.005404830516845615</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.06044842821218076</v>
+        <v>0.05712606189463022</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>5</v>
@@ -6100,19 +6100,19 @@
         <v>6269</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2087</v>
+        <v>2112</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>14243</v>
+        <v>14805</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02217852054200671</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.007383903471977785</v>
+        <v>0.007473117520412085</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.05039202358881359</v>
+        <v>0.05238264641302018</v>
       </c>
     </row>
     <row r="42">
@@ -6132,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7152</v>
+        <v>6955</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.02819505635597008</v>
@@ -6141,7 +6141,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09110712860543675</v>
+        <v>0.08859868129971894</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>16</v>
@@ -6150,19 +6150,19 @@
         <v>16991</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>10481</v>
+        <v>10702</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>26487</v>
+        <v>27610</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.08323554413851265</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05134079884108327</v>
+        <v>0.05242800522908003</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1297534443120284</v>
+        <v>0.1352517327766203</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>18</v>
@@ -6171,19 +6171,19 @@
         <v>19205</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>11502</v>
+        <v>12281</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>28514</v>
+        <v>30788</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.06794781804205262</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.04069541587642984</v>
+        <v>0.04345260519236165</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1008838928406649</v>
+        <v>0.1089290340881751</v>
       </c>
     </row>
     <row r="43">
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>7546</v>
+        <v>7469</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.01046639694069444</v>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03696360457550606</v>
+        <v>0.03658936577492519</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>7373</v>
+        <v>7339</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.007559311337123282</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02608731286958159</v>
+        <v>0.02596665914601688</v>
       </c>
     </row>
     <row r="44">
@@ -6263,19 +6263,19 @@
         <v>4307</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>9972</v>
+        <v>10399</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.05486581278857476</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01361658842172923</v>
+        <v>0.01360063731196772</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1270193127156354</v>
+        <v>0.1324603792494276</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>20</v>
@@ -6284,19 +6284,19 @@
         <v>22453</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>13577</v>
+        <v>14395</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>31509</v>
+        <v>33608</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.109992486550438</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.06650784232137312</v>
+        <v>0.07051884625570348</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1543529854890521</v>
+        <v>0.1646374564177937</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>24</v>
@@ -6305,19 +6305,19 @@
         <v>26761</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>18180</v>
+        <v>17466</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>38783</v>
+        <v>39195</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.09468082193710993</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.06432141905830385</v>
+        <v>0.06179418010665127</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1372182125823563</v>
+        <v>0.138675040209749</v>
       </c>
     </row>
     <row r="45">
@@ -6334,19 +6334,19 @@
         <v>6498</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>2223</v>
+        <v>2300</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>13348</v>
+        <v>13249</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.08277808202240294</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02832125022361182</v>
+        <v>0.02930069837521274</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1700245803471441</v>
+        <v>0.1687708181636544</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>21</v>
@@ -6355,19 +6355,19 @@
         <v>22986</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>14374</v>
+        <v>14309</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>32880</v>
+        <v>33046</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.1126022158447306</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.07041220080906187</v>
+        <v>0.07009436372028591</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.161069718760585</v>
+        <v>0.1618840413710897</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>27</v>
@@ -6376,19 +6376,19 @@
         <v>29485</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>20099</v>
+        <v>20498</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>42411</v>
+        <v>41534</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.1043184377150511</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.07111189229669748</v>
+        <v>0.07252475950300101</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.1500520420959412</v>
+        <v>0.1469499178453385</v>
       </c>
     </row>
     <row r="46">
@@ -6405,19 +6405,19 @@
         <v>60308</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>51603</v>
+        <v>51029</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>67411</v>
+        <v>67495</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.7682079092078181</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.6573159379555693</v>
+        <v>0.6500121485735794</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.8586846168518376</v>
+        <v>0.859758796631402</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>111</v>
@@ -6426,19 +6426,19 @@
         <v>120877</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>106558</v>
+        <v>105671</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>136028</v>
+        <v>135163</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.5921419550167106</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.5219939649953617</v>
+        <v>0.5176483442714397</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.6663619457117469</v>
+        <v>0.6621216083034733</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>162</v>
@@ -6447,19 +6447,19 @@
         <v>181186</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>164728</v>
+        <v>164147</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>197056</v>
+        <v>197827</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.6410450114943325</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.582816837013431</v>
+        <v>0.5807628914851574</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.6971955275745887</v>
+        <v>0.6999245480995334</v>
       </c>
     </row>
     <row r="47">
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>7413</v>
+        <v>6366</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02618538529871148</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.09442908142068017</v>
+        <v>0.08109616207529433</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>13</v>
@@ -6497,19 +6497,19 @@
         <v>13452</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>7463</v>
+        <v>7360</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>21936</v>
+        <v>21378</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.06589693517295654</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03655763184242824</v>
+        <v>0.03605323065323286</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1074583956489373</v>
+        <v>0.1047240861317767</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>15</v>
@@ -6518,19 +6518,19 @@
         <v>15508</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>8731</v>
+        <v>9366</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>25031</v>
+        <v>25217</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.05486688580744335</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03088931513184108</v>
+        <v>0.03313613845115112</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.08856062011559104</v>
+        <v>0.08922006631861941</v>
       </c>
     </row>
     <row r="48">
@@ -6956,19 +6956,19 @@
         <v>2445</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6419</v>
+        <v>6866</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1018553511281639</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03109940045462247</v>
+        <v>0.03185109324087013</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.267360030792692</v>
+        <v>0.2859637872128302</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10550</v>
+        <v>9017</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04368523803248524</v>
@@ -6989,7 +6989,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1610394144434762</v>
+        <v>0.1376383461942494</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -6998,19 +6998,19 @@
         <v>5307</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1994</v>
+        <v>1997</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>12779</v>
+        <v>12708</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05928565098429703</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02227521788563564</v>
+        <v>0.02230237931862328</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.142746217579266</v>
+        <v>0.1419504633153649</v>
       </c>
     </row>
     <row r="7">
@@ -7074,19 +7074,19 @@
         <v>2561</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>708</v>
+        <v>786</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6124</v>
+        <v>6280</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1066529542827748</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02947814383508717</v>
+        <v>0.03271960898480258</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2550717308371571</v>
+        <v>0.2615677213797637</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -7095,19 +7095,19 @@
         <v>12419</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6200</v>
+        <v>6250</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>20800</v>
+        <v>20703</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1895580320720532</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09462864373166935</v>
+        <v>0.09539239585147706</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3174840896081637</v>
+        <v>0.315998459115966</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -7116,19 +7116,19 @@
         <v>14980</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8531</v>
+        <v>8253</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23714</v>
+        <v>22922</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1673240466027882</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.09529095727511319</v>
+        <v>0.09218386042426072</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2648870038819388</v>
+        <v>0.2560379493101393</v>
       </c>
     </row>
     <row r="9">
@@ -7148,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3807</v>
+        <v>3383</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03338428574533632</v>
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1585843148756032</v>
+        <v>0.140901484757868</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -7166,19 +7166,19 @@
         <v>3872</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1230</v>
+        <v>1238</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10408</v>
+        <v>10943</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05910736052851676</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01877113719711793</v>
+        <v>0.01889282456702793</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1588717844728649</v>
+        <v>0.1670380132942174</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -7187,19 +7187,19 @@
         <v>4674</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1273</v>
+        <v>1285</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10712</v>
+        <v>10632</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05220879066760029</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01421496138892686</v>
+        <v>0.014355885947093</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1196573981284773</v>
+        <v>0.1187605790651331</v>
       </c>
     </row>
     <row r="10">
@@ -7216,19 +7216,19 @@
         <v>14677</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9455</v>
+        <v>9733</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18803</v>
+        <v>18973</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.611311534608707</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3937947517934842</v>
+        <v>0.4053827685708772</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7831462833083206</v>
+        <v>0.7902435515403536</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -7237,19 +7237,19 @@
         <v>41018</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31309</v>
+        <v>32479</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>49191</v>
+        <v>49246</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6260873470961983</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4778904656443452</v>
+        <v>0.4957463784414606</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7508409700336643</v>
+        <v>0.7516779960581667</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -7258,19 +7258,19 @@
         <v>55695</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46379</v>
+        <v>46053</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64851</v>
+        <v>64961</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6221246802861088</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5180591529917152</v>
+        <v>0.5144209776204307</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.72440344668331</v>
+        <v>0.7256238397771198</v>
       </c>
     </row>
     <row r="11">
@@ -7287,19 +7287,19 @@
         <v>3524</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>871</v>
+        <v>855</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8960</v>
+        <v>9069</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1467958742350179</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03628904919996565</v>
+        <v>0.03559414335932256</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3731789046828163</v>
+        <v>0.3777171447053349</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -7308,19 +7308,19 @@
         <v>5344</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1958</v>
+        <v>1921</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11700</v>
+        <v>11663</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08156202227074652</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02989028159582741</v>
+        <v>0.0293272709645039</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1785869011999447</v>
+        <v>0.1780199996766943</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -7329,19 +7329,19 @@
         <v>8868</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3792</v>
+        <v>3892</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16584</v>
+        <v>15850</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.09905683145920575</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04235944185948562</v>
+        <v>0.04347116077291993</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1852460487503927</v>
+        <v>0.1770488779246128</v>
       </c>
     </row>
     <row r="12">
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5701</v>
+        <v>4018</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.05313861551339568</v>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.315882350137742</v>
+        <v>0.2226502108570535</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -7548,19 +7548,19 @@
         <v>3701</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>1171</v>
+        <v>1140</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8810</v>
+        <v>9456</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.08623125410448412</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02727142119921928</v>
+        <v>0.02655504847578006</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2052598960948846</v>
+        <v>0.2202941683453408</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -7569,19 +7569,19 @@
         <v>4660</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1205</v>
+        <v>1262</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10884</v>
+        <v>11287</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07643596017753289</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0197633894137614</v>
+        <v>0.02070672262612805</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1785077633981147</v>
+        <v>0.185121620903104</v>
       </c>
     </row>
     <row r="16">
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3737</v>
+        <v>4604</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04933191934733249</v>
@@ -7657,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2070794541295988</v>
+        <v>0.2550929390617063</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -7666,19 +7666,19 @@
         <v>5620</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1432</v>
+        <v>1423</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14637</v>
+        <v>14043</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1309418600646669</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0333735615121814</v>
+        <v>0.03314728562515935</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3410093788594181</v>
+        <v>0.3271744682928776</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4</v>
@@ -7687,19 +7687,19 @@
         <v>6511</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2087</v>
+        <v>2170</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>15535</v>
+        <v>15538</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1067856310445178</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03423572479018106</v>
+        <v>0.03559922057249534</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2547987473557111</v>
+        <v>0.2548477746121107</v>
       </c>
     </row>
     <row r="18">
@@ -7719,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3168</v>
+        <v>3879</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04077944938319108</v>
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1755375091799616</v>
+        <v>0.2149627843684011</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -7740,7 +7740,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6271</v>
+        <v>5036</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02634779965850555</v>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1461085421115423</v>
+        <v>0.1173362661317409</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -7761,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>7247</v>
+        <v>7823</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03061951255063399</v>
@@ -7770,7 +7770,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1188633132569185</v>
+        <v>0.1283079908327562</v>
       </c>
     </row>
     <row r="19">
@@ -7787,19 +7787,19 @@
         <v>15462</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11699</v>
+        <v>11468</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17324</v>
+        <v>17310</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8567500157560808</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6482736920760627</v>
+        <v>0.6354298492139863</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9599484621467506</v>
+        <v>0.9591866684163985</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -7808,19 +7808,19 @@
         <v>26880</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19351</v>
+        <v>18719</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33965</v>
+        <v>33681</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6262363637191739</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4508386585316885</v>
+        <v>0.4361074863607953</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7913082691898469</v>
+        <v>0.7846757073725296</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -7829,19 +7829,19 @@
         <v>42342</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>34104</v>
+        <v>34138</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>50180</v>
+        <v>49536</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6944675194084187</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5593558331451349</v>
+        <v>0.5599127121928263</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8230303817596683</v>
+        <v>0.8124715492937186</v>
       </c>
     </row>
     <row r="20">
@@ -7871,19 +7871,19 @@
         <v>5590</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2164</v>
+        <v>2196</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11604</v>
+        <v>12802</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1302427224531695</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05040848263097889</v>
+        <v>0.05115868339451502</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2703467453412611</v>
+        <v>0.2982531162928734</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -7892,19 +7892,19 @@
         <v>5590</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2137</v>
+        <v>2085</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11832</v>
+        <v>12044</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09169137681889665</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03504704160715892</v>
+        <v>0.03419636989312559</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1940625112522432</v>
+        <v>0.1975350687380817</v>
       </c>
     </row>
     <row r="21">
@@ -8059,7 +8059,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6297</v>
+        <v>5878</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02973500801588231</v>
@@ -8068,7 +8068,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1518265996892047</v>
+        <v>0.1417129908151761</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -8080,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6285</v>
+        <v>6760</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02254306962470448</v>
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1148750628868511</v>
+        <v>0.1235676705583141</v>
       </c>
     </row>
     <row r="24">
@@ -8203,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5390</v>
+        <v>5848</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.154689200984957</v>
@@ -8212,7 +8212,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4073493938548234</v>
+        <v>0.4419583180519271</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9044</v>
+        <v>8621</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06209001373253378</v>
@@ -8233,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2180496886513256</v>
+        <v>0.2078638856338586</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -8242,19 +8242,19 @@
         <v>4622</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1220</v>
+        <v>1234</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10900</v>
+        <v>11174</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.08448676739867893</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02229955727047194</v>
+        <v>0.02255377759593876</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1992375572204597</v>
+        <v>0.2042445742322131</v>
       </c>
     </row>
     <row r="27">
@@ -8287,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6640</v>
+        <v>7352</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03220682907233237</v>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1600901081928435</v>
+        <v>0.1772633586127364</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1</v>
@@ -8308,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>6229</v>
+        <v>7220</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02441703697475871</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1138545798486038</v>
+        <v>0.1319807177247083</v>
       </c>
     </row>
     <row r="28">
@@ -8334,19 +8334,19 @@
         <v>10393</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7143</v>
+        <v>5937</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>12475</v>
+        <v>12442</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7854166261809246</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5398553229299023</v>
+        <v>0.4486884360844975</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9428105092449688</v>
+        <v>0.9403329147012728</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>23</v>
@@ -8355,19 +8355,19 @@
         <v>31313</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>23830</v>
+        <v>23386</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>36654</v>
+        <v>36530</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7549740843843503</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5745402726823192</v>
+        <v>0.563840468514161</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.8837469564635202</v>
+        <v>0.8807547776288536</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>34</v>
@@ -8376,19 +8376,19 @@
         <v>41706</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>33543</v>
+        <v>33859</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>47432</v>
+        <v>47534</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7623371523530852</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6131320149590685</v>
+        <v>0.6189043049282297</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8670021391022007</v>
+        <v>0.868862309164202</v>
       </c>
     </row>
     <row r="29">
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3670</v>
+        <v>4160</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05989417283411835</v>
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2773349780120803</v>
+        <v>0.3143559009590888</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -8426,19 +8426,19 @@
         <v>5018</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1264</v>
+        <v>1231</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>11547</v>
+        <v>11313</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1209940647949012</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03047647147832587</v>
+        <v>0.02967233872943763</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2783900881026392</v>
+        <v>0.2727636441713518</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5</v>
@@ -8447,19 +8447,19 @@
         <v>5811</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2380</v>
+        <v>2069</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>12587</v>
+        <v>12121</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1062159736487726</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04349992503884358</v>
+        <v>0.0378123625131058</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2300726349489539</v>
+        <v>0.2215525188092144</v>
       </c>
     </row>
     <row r="30">
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5117</v>
+        <v>5070</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.05809222663448124</v>
@@ -8623,7 +8623,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2466921589939554</v>
+        <v>0.2443958286425137</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1</v>
@@ -8635,7 +8635,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5673</v>
+        <v>6925</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03278928393384089</v>
@@ -8644,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1543641547180226</v>
+        <v>0.1884461573849853</v>
       </c>
     </row>
     <row r="33">
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>5841</v>
+        <v>4941</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05809222663448124</v>
@@ -8686,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2815719936261188</v>
+        <v>0.238188265885141</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>1</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>5325</v>
+        <v>5846</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.03278928393384089</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1448947327467505</v>
+        <v>0.1590632047844101</v>
       </c>
     </row>
     <row r="34">
@@ -8771,19 +8771,19 @@
         <v>4248</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1582</v>
+        <v>1587</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8065</v>
+        <v>8257</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2654062527696551</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09885087385571478</v>
+        <v>0.09914152635712237</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.5038234447250215</v>
+        <v>0.5158340021315025</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>3</v>
@@ -8792,19 +8792,19 @@
         <v>3515</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1030</v>
+        <v>1049</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>8738</v>
+        <v>8502</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1694644074299048</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04964503282306142</v>
+        <v>0.05056301202067356</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.4212606032937887</v>
+        <v>0.4098876698484243</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>8</v>
@@ -8813,19 +8813,19 @@
         <v>7764</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3835</v>
+        <v>3555</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>14311</v>
+        <v>13750</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2112533206092882</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.104365190701937</v>
+        <v>0.09673408192523891</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3894086368387402</v>
+        <v>0.3741588787868325</v>
       </c>
     </row>
     <row r="36">
@@ -8845,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6085</v>
+        <v>6225</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.08119254321554273</v>
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3801634827657037</v>
+        <v>0.3888917074688739</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6319</v>
+        <v>6829</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03536463289018994</v>
@@ -8888,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1719577460873791</v>
+        <v>0.1858186894050741</v>
       </c>
     </row>
     <row r="37">
@@ -8905,19 +8905,19 @@
         <v>8945</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>4914</v>
+        <v>4902</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12775</v>
+        <v>12398</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5587914007727818</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3069795675296332</v>
+        <v>0.3062118849064328</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7981158870683198</v>
+        <v>0.7745164081298768</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3</v>
@@ -8926,19 +8926,19 @@
         <v>3289</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>967</v>
+        <v>929</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>8027</v>
+        <v>8114</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1585370170755309</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04659749861508072</v>
+        <v>0.04480432869687938</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.386961674851936</v>
+        <v>0.3911624731661321</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>13</v>
@@ -8947,19 +8947,19 @@
         <v>12233</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6950</v>
+        <v>6899</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>18352</v>
+        <v>18470</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.33287383153601</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1891166609742927</v>
+        <v>0.187725085303148</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4993622219271637</v>
+        <v>0.5025856397764956</v>
       </c>
     </row>
     <row r="38">
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>6594</v>
+        <v>6602</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.09460980324202038</v>
@@ -8988,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4119416115298444</v>
+        <v>0.4124279262003271</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>9</v>
@@ -8997,19 +8997,19 @@
         <v>11529</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>6716</v>
+        <v>6361</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>16196</v>
+        <v>16229</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.5558141222256018</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3237795146494065</v>
+        <v>0.3066588902407636</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7808029762019514</v>
+        <v>0.7823647892673263</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>10</v>
@@ -9018,19 +9018,19 @@
         <v>13044</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>6473</v>
+        <v>6491</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>19748</v>
+        <v>19414</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3549296470968301</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1761229732930924</v>
+        <v>0.176630235902494</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5373531898806572</v>
+        <v>0.5282588258503873</v>
       </c>
     </row>
     <row r="39">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7475</v>
+        <v>7470</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01428771989562969</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.04379847025784989</v>
+        <v>0.04377092373954194</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2</v>
@@ -9206,7 +9206,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>9445</v>
+        <v>8139</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01007760820435817</v>
@@ -9215,7 +9215,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03903788853289116</v>
+        <v>0.03363851897361628</v>
       </c>
     </row>
     <row r="42">
@@ -9232,19 +9232,19 @@
         <v>3404</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>867</v>
+        <v>955</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8617</v>
+        <v>7806</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.0477513921278231</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.01216550647031891</v>
+        <v>0.01339032146651125</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1208672676123479</v>
+        <v>0.1094837962226104</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>6</v>
@@ -9253,19 +9253,19 @@
         <v>7768</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>3050</v>
+        <v>2925</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>15641</v>
+        <v>16337</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.04552030882723235</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.01787013032217742</v>
+        <v>0.01713884301910593</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.09165348824144919</v>
+        <v>0.09573052007060165</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>10</v>
@@ -9274,19 +9274,19 @@
         <v>11173</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>5482</v>
+        <v>5747</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>19563</v>
+        <v>20734</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.04617773422167131</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.02265837276918955</v>
+        <v>0.02375101790454254</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08085265903251149</v>
+        <v>0.08569617695090637</v>
       </c>
     </row>
     <row r="43">
@@ -9350,19 +9350,19 @@
         <v>9746</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>5089</v>
+        <v>5388</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>15967</v>
+        <v>15932</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1367019144014325</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0713750421629</v>
+        <v>0.0755700166878228</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.223960285144048</v>
+        <v>0.22346331269988</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>18</v>
@@ -9371,19 +9371,19 @@
         <v>24130</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>14391</v>
+        <v>14665</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>36972</v>
+        <v>35188</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1413934887514022</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.08432610587596165</v>
+        <v>0.08593325297343221</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.21664441445239</v>
+        <v>0.2061934094510715</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>29</v>
@@ -9392,19 +9392,19 @@
         <v>33876</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>22723</v>
+        <v>24017</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>46916</v>
+        <v>47944</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1400110391957304</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.09391408311192811</v>
+        <v>0.09926508745801037</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1939051088612227</v>
+        <v>0.1981530180243651</v>
       </c>
     </row>
     <row r="45">
@@ -9421,19 +9421,19 @@
         <v>2837</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>8280</v>
+        <v>8763</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.03979412802844711</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.01049259821285959</v>
+        <v>0.01032513808213303</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1161441862988696</v>
+        <v>0.1229148930963869</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>5</v>
@@ -9442,19 +9442,19 @@
         <v>6339</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>14126</v>
+        <v>14416</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.03714558536399307</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.01449545231597906</v>
+        <v>0.01450425040987822</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.08277465521212091</v>
+        <v>0.08447139337763548</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>8</v>
@@ -9463,19 +9463,19 @@
         <v>9176</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>3982</v>
+        <v>4136</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>17280</v>
+        <v>17698</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.03792602202693886</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.01645852198376782</v>
+        <v>0.01709244437764785</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.07142068754539223</v>
+        <v>0.07314607517634915</v>
       </c>
     </row>
     <row r="46">
@@ -9492,19 +9492,19 @@
         <v>49476</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>41981</v>
+        <v>40781</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>57231</v>
+        <v>56485</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.6939601721686042</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.5888385183257872</v>
+        <v>0.572003297929041</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.802730736976406</v>
+        <v>0.792274532004075</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>82</v>
@@ -9513,19 +9513,19 @@
         <v>102500</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>88340</v>
+        <v>87462</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>116936</v>
+        <v>116496</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.6006186763348198</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.5176473655259425</v>
+        <v>0.5125020748503291</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.6852112011968201</v>
+        <v>0.6826339642863667</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>136</v>
@@ -9534,19 +9534,19 @@
         <v>151976</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>136141</v>
+        <v>135821</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>168651</v>
+        <v>168295</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.6281232834912627</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.562674670951489</v>
+        <v>0.5613547635356548</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.6970411696958271</v>
+        <v>0.6955678305569444</v>
       </c>
     </row>
     <row r="47">
@@ -9563,19 +9563,19 @@
         <v>5831</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1893</v>
+        <v>1752</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>12861</v>
+        <v>12942</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.08179239327369307</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02654769632255969</v>
+        <v>0.02456820776035518</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1803879668816859</v>
+        <v>0.1815230080690032</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>23</v>
@@ -9584,19 +9584,19 @@
         <v>27482</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>17951</v>
+        <v>18135</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>39349</v>
+        <v>40409</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1610342208269229</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1051869873863304</v>
+        <v>0.1062656240626784</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.230576120472546</v>
+        <v>0.2367869095532273</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>28</v>
@@ -9605,19 +9605,19 @@
         <v>33313</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>23828</v>
+        <v>22336</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>48414</v>
+        <v>46337</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1376843128600386</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.09848223481676346</v>
+        <v>0.09231540027758013</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2000954387679651</v>
+        <v>0.1915124860432706</v>
       </c>
     </row>
     <row r="48">
@@ -9952,16 +9952,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5462</v>
+        <v>4740</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06649140118193644</v>
+        <v>0.06649140118193646</v>
       </c>
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2192008413638613</v>
+        <v>0.1902248018955695</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -9973,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4865</v>
+        <v>5795</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02213996213536876</v>
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0674880544967172</v>
+        <v>0.08038849799419411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -9991,19 +9991,19 @@
         <v>3253</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1008</v>
+        <v>708</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8458</v>
+        <v>7408</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03353286339726212</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01039103938449811</v>
+        <v>0.007294749802229615</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08719327120881873</v>
+        <v>0.076367067940281</v>
       </c>
     </row>
     <row r="5">
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2997</v>
+        <v>3614</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02817555469393552</v>
@@ -10032,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1202737485450739</v>
+        <v>0.1450406504720609</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -10041,19 +10041,19 @@
         <v>5042</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2315</v>
+        <v>2366</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9074</v>
+        <v>9212</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06995388332086255</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03211885565684127</v>
+        <v>0.03282698268239465</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1258789984101958</v>
+        <v>0.1277902554944373</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -10062,19 +10062,19 @@
         <v>5745</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2997</v>
+        <v>2927</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9904</v>
+        <v>10088</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.05922195707076385</v>
+        <v>0.05922195707076386</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03089420358537133</v>
+        <v>0.03017293886908025</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1021059990185152</v>
+        <v>0.1039979412747154</v>
       </c>
     </row>
     <row r="6">
@@ -10094,16 +10094,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2868</v>
+        <v>2216</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.01973838102243981</v>
+        <v>0.01973838102243982</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1151090362205393</v>
+        <v>0.08894556355189281</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>29</v>
@@ -10112,19 +10112,19 @@
         <v>15775</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10813</v>
+        <v>10966</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21322</v>
+        <v>21521</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2188416851717848</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.150009601343661</v>
+        <v>0.1521296187172984</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2957946282147783</v>
+        <v>0.2985614789293385</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>30</v>
@@ -10133,19 +10133,19 @@
         <v>16267</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11399</v>
+        <v>11860</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22088</v>
+        <v>22872</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1676964611643182</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1175159838900554</v>
+        <v>0.1222708526836186</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2277123478451936</v>
+        <v>0.235795960446273</v>
       </c>
     </row>
     <row r="7">
@@ -10165,7 +10165,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3804</v>
+        <v>3535</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02771094504606039</v>
@@ -10174,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1526772026169323</v>
+        <v>0.1418889756666029</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -10183,19 +10183,19 @@
         <v>1271</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3407</v>
+        <v>3805</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01763024366851685</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004525396028553485</v>
+        <v>0.004580039108266152</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04727113907528723</v>
+        <v>0.05279300828852251</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>4</v>
@@ -10204,19 +10204,19 @@
         <v>1961</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>608</v>
+        <v>347</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>4972</v>
+        <v>4829</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02021975232739934</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006264779441299279</v>
+        <v>0.003579435397667039</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05125715754783967</v>
+        <v>0.04978281090878012</v>
       </c>
     </row>
     <row r="8">
@@ -10236,16 +10236,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5950</v>
+        <v>5957</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0769547389144358</v>
+        <v>0.07695473891443581</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2387756796021555</v>
+        <v>0.2390855579138889</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -10254,19 +10254,19 @@
         <v>4610</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2357</v>
+        <v>2176</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8160</v>
+        <v>8263</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06395006017688172</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03270201381088345</v>
+        <v>0.03019263003710069</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1132085502491253</v>
+        <v>0.1146357827731566</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -10275,19 +10275,19 @@
         <v>6527</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3415</v>
+        <v>3559</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11987</v>
+        <v>11799</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.06729067378457171</v>
+        <v>0.06729067378457172</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03520687064439026</v>
+        <v>0.03668675143913649</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1235767570064895</v>
+        <v>0.1216354194014952</v>
       </c>
     </row>
     <row r="9">
@@ -10307,7 +10307,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3356</v>
+        <v>3360</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04279912147839945</v>
@@ -10316,7 +10316,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1346743338291869</v>
+        <v>0.1348283652116927</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -10325,19 +10325,19 @@
         <v>4115</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1968</v>
+        <v>1959</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7706</v>
+        <v>7492</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0570889136815291</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02729962166556092</v>
+        <v>0.02718163257303051</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1069077525123133</v>
+        <v>0.103937567565823</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -10346,19 +10346,19 @@
         <v>5182</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2775</v>
+        <v>2477</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9048</v>
+        <v>8911</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.05341818292006966</v>
+        <v>0.05341818292006967</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02860689879753479</v>
+        <v>0.02553817698206791</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09327909805015465</v>
+        <v>0.09186393884740125</v>
       </c>
     </row>
     <row r="10">
@@ -10375,19 +10375,19 @@
         <v>17351</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13417</v>
+        <v>12781</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20680</v>
+        <v>20628</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.6963695018727065</v>
+        <v>0.6963695018727066</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.538455533581032</v>
+        <v>0.5129531115643661</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.829963961589851</v>
+        <v>0.8278784771091783</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -10396,19 +10396,19 @@
         <v>34577</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>28404</v>
+        <v>28314</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41307</v>
+        <v>41212</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4796856220742499</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3940413415944349</v>
+        <v>0.3927968019273183</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5730546415168021</v>
+        <v>0.5717241628378752</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>86</v>
@@ -10417,19 +10417,19 @@
         <v>51929</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44376</v>
+        <v>44781</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59264</v>
+        <v>59314</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5353469061420738</v>
+        <v>0.5353469061420739</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4574882903229085</v>
+        <v>0.4616629149721803</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6109647042417071</v>
+        <v>0.6114833590555835</v>
       </c>
     </row>
     <row r="11">
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3419</v>
+        <v>3878</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.041760355790086</v>
@@ -10458,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1372281746722701</v>
+        <v>0.1556434810626125</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -10467,19 +10467,19 @@
         <v>5097</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2639</v>
+        <v>2351</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9647</v>
+        <v>9184</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07070962977080621</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03660933865225736</v>
+        <v>0.03260877953581672</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1338361458164311</v>
+        <v>0.1274124604262006</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -10488,19 +10488,19 @@
         <v>6138</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>3268</v>
+        <v>3008</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10667</v>
+        <v>10263</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.06327320319354122</v>
+        <v>0.06327320319354124</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03369119935296554</v>
+        <v>0.03101177354793089</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1099644630157262</v>
+        <v>0.1058067737151792</v>
       </c>
     </row>
     <row r="12">
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2681</v>
+        <v>2799</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01287816658427985</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06975564504272384</v>
+        <v>0.07281469058153121</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -10613,19 +10613,19 @@
         <v>4054</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1607</v>
+        <v>1830</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7605</v>
+        <v>8314</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.04024443201648008</v>
+        <v>0.0402444320164801</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01595279281377155</v>
+        <v>0.01817155425644114</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07550251138865011</v>
+        <v>0.08253644484603337</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -10634,19 +10634,19 @@
         <v>4549</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1858</v>
+        <v>2127</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8449</v>
+        <v>8415</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03268585855967495</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01334782896267397</v>
+        <v>0.01528272417058717</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06071548097700864</v>
+        <v>0.06047064832569957</v>
       </c>
     </row>
     <row r="14">
@@ -10663,19 +10663,19 @@
         <v>3532</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1382</v>
+        <v>1283</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7174</v>
+        <v>7506</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09189779799452882</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0359456224818947</v>
+        <v>0.03339228421005985</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1866329882746858</v>
+        <v>0.1952683487407774</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>15</v>
@@ -10684,19 +10684,19 @@
         <v>7930</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4742</v>
+        <v>4553</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13312</v>
+        <v>12929</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.07873047723545015</v>
+        <v>0.07873047723545018</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04707288495415933</v>
+        <v>0.04520585284783887</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1321559411620091</v>
+        <v>0.1283565064881752</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>20</v>
@@ -10705,19 +10705,19 @@
         <v>11463</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7170</v>
+        <v>7116</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>16765</v>
+        <v>17143</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.08236729649503773</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05152393036625261</v>
+        <v>0.05113373882343281</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1204686573695887</v>
+        <v>0.1231884327738225</v>
       </c>
     </row>
     <row r="15">
@@ -10734,19 +10734,19 @@
         <v>5559</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2642</v>
+        <v>2872</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9562</v>
+        <v>10086</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1446317814354676</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06873842569915331</v>
+        <v>0.07472936440827319</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2487620843762669</v>
+        <v>0.2624144178073428</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>37</v>
@@ -10755,19 +10755,19 @@
         <v>16210</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>11498</v>
+        <v>11392</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>22827</v>
+        <v>21577</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.160932210131165</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1141508751009691</v>
+        <v>0.1130983404683186</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2266196144789495</v>
+        <v>0.2142110338291072</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>46</v>
@@ -10776,19 +10776,19 @@
         <v>21769</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>16484</v>
+        <v>16475</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>28380</v>
+        <v>29170</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1564300252064777</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1184526838307235</v>
+        <v>0.1183826157258055</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2039352997568275</v>
+        <v>0.2096058327090907</v>
       </c>
     </row>
     <row r="16">
@@ -10808,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4920</v>
+        <v>4974</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03794881463287206</v>
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1280029754769222</v>
+        <v>0.1293996544452539</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -10829,16 +10829,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3673</v>
+        <v>3206</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.006192812246861888</v>
+        <v>0.00619281224686189</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03646836073150189</v>
+        <v>0.0318288953429558</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -10847,19 +10847,19 @@
         <v>2082</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6026</v>
+        <v>5993</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01496383280587131</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.004007647966727506</v>
+        <v>0.00394254160051717</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04330203447388394</v>
+        <v>0.04306599749784109</v>
       </c>
     </row>
     <row r="17">
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2921</v>
+        <v>2512</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01292360493895524</v>
@@ -10888,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07600614145705291</v>
+        <v>0.06535414882270936</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -10897,19 +10897,19 @@
         <v>3946</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1669</v>
+        <v>1650</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7975</v>
+        <v>7321</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.03917523280187105</v>
+        <v>0.03917523280187106</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01657150343243629</v>
+        <v>0.01637848753935521</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07917756406072464</v>
+        <v>0.07267896604342523</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -10918,19 +10918,19 @@
         <v>4443</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1995</v>
+        <v>2157</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8310</v>
+        <v>8594</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.03192452268747279</v>
+        <v>0.0319245226874728</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01433686390858168</v>
+        <v>0.0155004274624452</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05971616232823759</v>
+        <v>0.06175653268648889</v>
       </c>
     </row>
     <row r="18">
@@ -10947,19 +10947,19 @@
         <v>2674</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>887</v>
+        <v>691</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6733</v>
+        <v>6201</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06956310976010839</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02308027295829774</v>
+        <v>0.01798982344426266</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1751663594526002</v>
+        <v>0.1613301583408455</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>10</v>
@@ -10968,19 +10968,19 @@
         <v>6173</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3102</v>
+        <v>3057</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10568</v>
+        <v>11625</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.06128742060821225</v>
+        <v>0.06128742060821227</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03079643889248796</v>
+        <v>0.03034910995757411</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1049162904622101</v>
+        <v>0.1154125965471839</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -10989,19 +10989,19 @@
         <v>8847</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4939</v>
+        <v>4958</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>15276</v>
+        <v>14487</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.06357316926161422</v>
+        <v>0.06357316926161423</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03549119591820978</v>
+        <v>0.03562643230470747</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1097698642837976</v>
+        <v>0.1040993568738738</v>
       </c>
     </row>
     <row r="19">
@@ -11018,19 +11018,19 @@
         <v>20867</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>15754</v>
+        <v>15529</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25516</v>
+        <v>25834</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.5428958971566261</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4098768129883149</v>
+        <v>0.4040057558126258</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6638443661364094</v>
+        <v>0.672124028340004</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>107</v>
@@ -11039,19 +11039,19 @@
         <v>56508</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>49286</v>
+        <v>49912</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63540</v>
+        <v>63513</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.5610039880456756</v>
+        <v>0.5610039880456757</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4892994695866806</v>
+        <v>0.4955166429028327</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.630813614970115</v>
+        <v>0.6305424590294294</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>142</v>
@@ -11060,19 +11060,19 @@
         <v>77376</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>68605</v>
+        <v>68425</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>86453</v>
+        <v>85935</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5560025261002567</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.492977165623232</v>
+        <v>0.4916885940112209</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6212329898612757</v>
+        <v>0.6175077097584331</v>
       </c>
     </row>
     <row r="20">
@@ -11089,19 +11089,19 @@
         <v>3354</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1338</v>
+        <v>1221</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7640</v>
+        <v>7151</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.08726082749716185</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03480694962526505</v>
+        <v>0.03176557950291861</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1987714648133982</v>
+        <v>0.1860464658736148</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -11110,19 +11110,19 @@
         <v>5281</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2716</v>
+        <v>2829</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8771</v>
+        <v>8784</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05243342691428374</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02696429540771812</v>
+        <v>0.02808885654570683</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08707881669871329</v>
+        <v>0.08720917533770124</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -11131,19 +11131,19 @@
         <v>8636</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5014</v>
+        <v>5025</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>13640</v>
+        <v>14006</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06205276888359451</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03602895658617489</v>
+        <v>0.03611119347580729</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09801665625630231</v>
+        <v>0.1006458266744033</v>
       </c>
     </row>
     <row r="21">
@@ -11248,19 +11248,19 @@
         <v>2432</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5784</v>
+        <v>5532</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.04216144109282746</v>
+        <v>0.04216144109282748</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0146869955527137</v>
+        <v>0.01437740631071494</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1002825551573761</v>
+        <v>0.09591592736365573</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5</v>
@@ -11269,19 +11269,19 @@
         <v>2432</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5524</v>
+        <v>5520</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03008457921652033</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01004059391955876</v>
+        <v>0.01003170230803132</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06834463773258877</v>
+        <v>0.06829654777436908</v>
       </c>
     </row>
     <row r="23">
@@ -11298,19 +11298,19 @@
         <v>2873</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1012</v>
+        <v>959</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5356</v>
+        <v>5933</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1241040637823884</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04371492405413387</v>
+        <v>0.04140304916320024</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2313418340248513</v>
+        <v>0.2562569447632452</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -11319,19 +11319,19 @@
         <v>3266</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1349</v>
+        <v>1401</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>6973</v>
+        <v>6761</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.0566329307420978</v>
+        <v>0.05663293074209783</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02338636114067487</v>
+        <v>0.02428623519937348</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.120907502897837</v>
+        <v>0.1172268832854937</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>12</v>
@@ -11340,19 +11340,19 @@
         <v>6140</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3254</v>
+        <v>3607</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>10496</v>
+        <v>10551</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07595958403583812</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04025848934457141</v>
+        <v>0.04462414068977642</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1298496005176252</v>
+        <v>0.1305344332858115</v>
       </c>
     </row>
     <row r="24">
@@ -11369,19 +11369,19 @@
         <v>5061</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2236</v>
+        <v>2388</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9358</v>
+        <v>9441</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.2186023059899665</v>
+        <v>0.2186023059899666</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09656303055052221</v>
+        <v>0.1031508175968428</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4041736083503217</v>
+        <v>0.4077817626176606</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -11390,19 +11390,19 @@
         <v>13024</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8154</v>
+        <v>8028</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>18330</v>
+        <v>18109</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2258134214298127</v>
+        <v>0.2258134214298128</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1413690238537809</v>
+        <v>0.1391871914739013</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3178121182500794</v>
+        <v>0.3139859285235428</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>30</v>
@@ -11411,19 +11411,19 @@
         <v>18085</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>12245</v>
+        <v>12811</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>24275</v>
+        <v>25195</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2237478458023245</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1514881007979003</v>
+        <v>0.1584890078470441</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3003230969245205</v>
+        <v>0.3117068930423706</v>
       </c>
     </row>
     <row r="25">
@@ -11456,16 +11456,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1651</v>
+        <v>1713</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.005142622600740614</v>
+        <v>0.005142622600740615</v>
       </c>
       <c r="O25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02861794982644075</v>
+        <v>0.029692656313627</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -11477,7 +11477,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1590</v>
+        <v>1538</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003669552866374124</v>
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01966972194566516</v>
+        <v>0.01902228568188829</v>
       </c>
     </row>
     <row r="26">
@@ -11506,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1847</v>
+        <v>1798</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01481004062372764</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07976316542849278</v>
+        <v>0.0776505598554786</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -11524,19 +11524,19 @@
         <v>4239</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1688</v>
+        <v>1947</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8924</v>
+        <v>8912</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.07349098797816074</v>
+        <v>0.07349098797816075</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02926667732930563</v>
+        <v>0.03375921622063122</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1547329081086688</v>
+        <v>0.1545100181735232</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -11545,19 +11545,19 @@
         <v>4582</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1886</v>
+        <v>2211</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>8982</v>
+        <v>9539</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05668222438751345</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02332719075049495</v>
+        <v>0.02735144723992809</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.111119164601547</v>
+        <v>0.1180087656206305</v>
       </c>
     </row>
     <row r="27">
@@ -11577,7 +11577,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3583</v>
+        <v>3700</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.04827143682498834</v>
@@ -11586,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1547736353539791</v>
+        <v>0.1598009856583376</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4</v>
@@ -11595,19 +11595,19 @@
         <v>2126</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5054</v>
+        <v>5201</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.03686458645721837</v>
+        <v>0.03686458645721838</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01114618460772547</v>
+        <v>0.01148104803119027</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08762331926245261</v>
+        <v>0.09017309330989094</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>6</v>
@@ -11616,19 +11616,19 @@
         <v>3244</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1148</v>
+        <v>1267</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7265</v>
+        <v>6531</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.04013200219929311</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01420697588726456</v>
+        <v>0.01567349183676634</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08988286723674149</v>
+        <v>0.08079421433631492</v>
       </c>
     </row>
     <row r="28">
@@ -11645,19 +11645,19 @@
         <v>13260</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9217</v>
+        <v>8966</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17252</v>
+        <v>16412</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.572720405293816</v>
+        <v>0.5727204052938161</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.398076128950374</v>
+        <v>0.3872493684480378</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7451368155544834</v>
+        <v>0.7088474600704461</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>57</v>
@@ -11666,19 +11666,19 @@
         <v>30956</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>25354</v>
+        <v>25083</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>37045</v>
+        <v>36616</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.5367243710902115</v>
+        <v>0.5367243710902116</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4395864642121239</v>
+        <v>0.4348940970187161</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6423033261919517</v>
+        <v>0.6348493637873348</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>78</v>
@@ -11687,19 +11687,19 @@
         <v>44216</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>36892</v>
+        <v>37448</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>51115</v>
+        <v>51337</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5470351935361197</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4564240849192043</v>
+        <v>0.4633020928519174</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6323860712724877</v>
+        <v>0.6351336249603849</v>
       </c>
     </row>
     <row r="29">
@@ -11719,7 +11719,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3025</v>
+        <v>2203</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02149174748511309</v>
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1306659920642937</v>
+        <v>0.09516439908930091</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2</v>
@@ -11740,7 +11740,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4509</v>
+        <v>4743</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02316963860893067</v>
@@ -11749,7 +11749,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07817801650880771</v>
+        <v>0.08223262722328296</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3</v>
@@ -11758,19 +11758,19 @@
         <v>1834</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4881</v>
+        <v>4981</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02268901795601674</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006217233516400558</v>
+        <v>0.006131415771666808</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06038431688479114</v>
+        <v>0.06162604261040069</v>
       </c>
     </row>
     <row r="30">
@@ -11878,7 +11878,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>3398</v>
+        <v>2386</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01357413614168758</v>
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.08207076378841253</v>
+        <v>0.05761673370556732</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -11899,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2840</v>
+        <v>2766</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.008854900818712466</v>
@@ -11908,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.04474658546118374</v>
+        <v>0.0435681658646099</v>
       </c>
     </row>
     <row r="32">
@@ -11928,16 +11928,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3562</v>
+        <v>3362</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.04454301204624614</v>
+        <v>0.04454301204624613</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1614203108653786</v>
+        <v>0.1523191787339753</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -11946,19 +11946,19 @@
         <v>2585</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1024</v>
+        <v>853</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>6229</v>
+        <v>5724</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.06241724316107523</v>
+        <v>0.06241724316107522</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.02472107825864991</v>
+        <v>0.02060014384572272</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1504167835166207</v>
+        <v>0.1382264741863057</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -11967,19 +11967,19 @@
         <v>3568</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1695</v>
+        <v>1377</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>7444</v>
+        <v>6947</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.05620302061551917</v>
+        <v>0.05620302061551916</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02669847822337818</v>
+        <v>0.02169572109411861</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1172650541632836</v>
+        <v>0.1094394497927913</v>
       </c>
     </row>
     <row r="33">
@@ -11996,19 +11996,19 @@
         <v>3160</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1073</v>
+        <v>1011</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>6491</v>
+        <v>6905</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1432012646726172</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04862669628442825</v>
+        <v>0.04583242502548336</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2941068336349019</v>
+        <v>0.3128982113270156</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>12</v>
@@ -12017,19 +12017,19 @@
         <v>6119</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>3189</v>
+        <v>3462</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>10395</v>
+        <v>10235</v>
       </c>
       <c r="N33" s="6" t="n">
-        <v>0.1477677680789684</v>
+        <v>0.1477677680789683</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.07701730411392209</v>
+        <v>0.08361543901493619</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2510312990953389</v>
+        <v>0.2471661009606582</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>17</v>
@@ -12038,19 +12038,19 @@
         <v>9279</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>5597</v>
+        <v>5480</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>14263</v>
+        <v>14301</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1461801602965803</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.08817315986204666</v>
+        <v>0.08633416092128184</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2247005312887815</v>
+        <v>0.2252947905984488</v>
       </c>
     </row>
     <row r="34">
@@ -12083,16 +12083,16 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2927</v>
+        <v>2880</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.02170814042724224</v>
+        <v>0.02170814042724223</v>
       </c>
       <c r="O34" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07067736111380683</v>
+        <v>0.06955373295614081</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>2</v>
@@ -12104,7 +12104,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3137</v>
+        <v>2836</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01416100652265999</v>
@@ -12113,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04941774955159259</v>
+        <v>0.04467868765564813</v>
       </c>
     </row>
     <row r="35">
@@ -12133,16 +12133,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>3267</v>
+        <v>3134</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.04286711006161369</v>
+        <v>0.04286711006161368</v>
       </c>
       <c r="H35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1480537442502496</v>
+        <v>0.1419982917033537</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -12151,19 +12151,19 @@
         <v>5861</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2977</v>
+        <v>2864</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>11709</v>
+        <v>11329</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1415363793544878</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07190178647821771</v>
+        <v>0.06917259705927274</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2827617868463973</v>
+        <v>0.2735882287474832</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>11</v>
@@ -12172,19 +12172,19 @@
         <v>6807</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3537</v>
+        <v>3555</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>13298</v>
+        <v>12799</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1072326493728033</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0557181797730612</v>
+        <v>0.05599757049685521</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2094987514072964</v>
+        <v>0.2016284546905923</v>
       </c>
     </row>
     <row r="36">
@@ -12204,16 +12204,16 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4637</v>
+        <v>4781</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.04706751974046989</v>
+        <v>0.04706751974046988</v>
       </c>
       <c r="H36" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2100970483565832</v>
+        <v>0.2166298884452262</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>6</v>
@@ -12222,19 +12222,19 @@
         <v>2485</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5534</v>
+        <v>5464</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.06000334467885392</v>
+        <v>0.0600033446788539</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02323318149677171</v>
+        <v>0.02331567919184126</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1336390064733511</v>
+        <v>0.1319637050869239</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>7</v>
@@ -12243,19 +12243,19 @@
         <v>3523</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1371</v>
+        <v>1416</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>7519</v>
+        <v>7831</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05550602703419275</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02159066774967719</v>
+        <v>0.02230478674079043</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1184552202706223</v>
+        <v>0.123363052042592</v>
       </c>
     </row>
     <row r="37">
@@ -12272,19 +12272,19 @@
         <v>14887</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>11226</v>
+        <v>11164</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>18202</v>
+        <v>18096</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.6745463629770687</v>
+        <v>0.6745463629770686</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5086804510603268</v>
+        <v>0.5058816799448244</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.824786635611383</v>
+        <v>0.8199652245017246</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>40</v>
@@ -12293,19 +12293,19 @@
         <v>21917</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>17258</v>
+        <v>16830</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>26507</v>
+        <v>26265</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5292718227727631</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4167754184411466</v>
+        <v>0.4064297424718306</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6401321298264527</v>
+        <v>0.6342887748021727</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>61</v>
@@ -12314,19 +12314,19 @@
         <v>36803</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>30112</v>
+        <v>30787</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>42364</v>
+        <v>43012</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.5797785168640079</v>
+        <v>0.5797785168640081</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.474381698331359</v>
+        <v>0.4850071885271499</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6673988665735454</v>
+        <v>0.67760141502061</v>
       </c>
     </row>
     <row r="38">
@@ -12346,16 +12346,16 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>3321</v>
+        <v>3838</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.0477747305019844</v>
+        <v>0.04777473050198439</v>
       </c>
       <c r="H38" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1504710488883621</v>
+        <v>0.1739102544532994</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>2</v>
@@ -12367,7 +12367,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>3380</v>
+        <v>3455</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.02372116538492173</v>
@@ -12376,7 +12376,7 @@
         <v>0</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.08163473000458042</v>
+        <v>0.08343608015131447</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>4</v>
@@ -12385,19 +12385,19 @@
         <v>2037</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>512</v>
+        <v>596</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>4673</v>
+        <v>5142</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.0320837184755239</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.008058329889134628</v>
+        <v>0.009384760774426465</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.07360963177190286</v>
+        <v>0.0810110433046215</v>
       </c>
     </row>
     <row r="39">
@@ -12489,19 +12489,19 @@
         <v>2152</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6427</v>
+        <v>6642</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01981813680316461</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.004784317509066763</v>
+        <v>0.004530247125711833</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.0591955728457811</v>
+        <v>0.06116940343843677</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>15</v>
@@ -12510,19 +12510,19 @@
         <v>8643</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>4982</v>
+        <v>4667</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>14136</v>
+        <v>14371</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.0317895499301086</v>
+        <v>0.03178954993010859</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.01832372349821128</v>
+        <v>0.01716541452730669</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05199224579465098</v>
+        <v>0.05285612772463633</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>18</v>
@@ -12531,19 +12531,19 @@
         <v>10795</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>6355</v>
+        <v>6683</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>17262</v>
+        <v>17208</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02837323049336879</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01670330792180142</v>
+        <v>0.01756418368645607</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04536958118336974</v>
+        <v>0.04522792445246249</v>
       </c>
     </row>
     <row r="41">
@@ -12560,19 +12560,19 @@
         <v>8091</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>4434</v>
+        <v>4415</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>13701</v>
+        <v>12602</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.07451671637448225</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.04084105281455699</v>
+        <v>0.0406635046926902</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1261896109065473</v>
+        <v>0.1160697279543901</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>35</v>
@@ -12581,19 +12581,19 @@
         <v>18824</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>13206</v>
+        <v>13509</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>25415</v>
+        <v>26288</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.06923175333138179</v>
+        <v>0.06923175333138178</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.04857205452126186</v>
+        <v>0.04968539680833756</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0934745995685542</v>
+        <v>0.09668615769158145</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>49</v>
@@ -12602,19 +12602,19 @@
         <v>26914</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>19523</v>
+        <v>20187</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>35086</v>
+        <v>34185</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.07073993968959533</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05131161702122647</v>
+        <v>0.05305753659249415</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.09221774782288897</v>
+        <v>0.08984977398783062</v>
       </c>
     </row>
     <row r="42">
@@ -12631,19 +12631,19 @@
         <v>14273</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>9576</v>
+        <v>8736</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>20725</v>
+        <v>20360</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1314528195327872</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.08819365716211965</v>
+        <v>0.08045633969201667</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1908823166203924</v>
+        <v>0.187520483037292</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>100</v>
@@ -12652,19 +12652,19 @@
         <v>51128</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>42328</v>
+        <v>41649</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>61134</v>
+        <v>60834</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.188042912383032</v>
+        <v>0.1880429123830319</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1556779167911675</v>
+        <v>0.1531815229015694</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2248453963929803</v>
+        <v>0.2237411042655876</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>123</v>
@@ -12673,19 +12673,19 @@
         <v>65400</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>54551</v>
+        <v>55374</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>76686</v>
+        <v>77198</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.1718936213944789</v>
+        <v>0.171893621394479</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1433774406145712</v>
+        <v>0.1455412124902467</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2015558969634793</v>
+        <v>0.2029008627260542</v>
       </c>
     </row>
     <row r="43">
@@ -12702,19 +12702,19 @@
         <v>2149</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>6319</v>
+        <v>6076</v>
       </c>
       <c r="G43" s="6" t="n">
-        <v>0.01979370864094239</v>
+        <v>0.0197937086409424</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.005265255418663575</v>
+        <v>0.005089431612525813</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.05819701517494513</v>
+        <v>0.05595764930700627</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>7</v>
@@ -12723,19 +12723,19 @@
         <v>3090</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1245</v>
+        <v>1357</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>6312</v>
+        <v>6550</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.01136518558658789</v>
+        <v>0.01136518558658788</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.004579473442040211</v>
+        <v>0.00498910435016302</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02321538308885837</v>
+        <v>0.02409179302934268</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>10</v>
@@ -12744,19 +12744,19 @@
         <v>5239</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2531</v>
+        <v>2888</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>9777</v>
+        <v>10010</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0137704594526107</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.006652348660833382</v>
+        <v>0.007590968722849948</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02569706385888893</v>
+        <v>0.02631058282695638</v>
       </c>
     </row>
     <row r="44">
@@ -12773,19 +12773,19 @@
         <v>3703</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1461</v>
+        <v>1343</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>8292</v>
+        <v>8412</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.03410659785524209</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01345638934862593</v>
+        <v>0.0123667821802442</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.07637147625948057</v>
+        <v>0.07747537857054519</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>33</v>
@@ -12794,19 +12794,19 @@
         <v>18655</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>12723</v>
+        <v>13252</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>26189</v>
+        <v>26680</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.06861192324608328</v>
+        <v>0.06861192324608326</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.0467926823677625</v>
+        <v>0.0487410834931402</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.0963198847137437</v>
+        <v>0.09812504602580567</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>39</v>
@@ -12815,19 +12815,19 @@
         <v>22358</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>15288</v>
+        <v>15563</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>30101</v>
+        <v>31003</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.05876503110780699</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.04018241130722935</v>
+        <v>0.04090514333059257</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.07911421954664651</v>
+        <v>0.08148674716959614</v>
       </c>
     </row>
     <row r="45">
@@ -12844,19 +12844,19 @@
         <v>5897</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>2839</v>
+        <v>2757</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>11470</v>
+        <v>10865</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.05430839068084636</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.02614831633111587</v>
+        <v>0.02539471150916942</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.1056427417691156</v>
+        <v>0.1000713729117364</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>29</v>
@@ -12865,19 +12865,19 @@
         <v>14899</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>9730</v>
+        <v>10283</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>20878</v>
+        <v>21713</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.05479804340346013</v>
+        <v>0.05479804340346011</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.03578702529207235</v>
+        <v>0.03782036141222693</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.07678875560463887</v>
+        <v>0.07985857466547737</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>38</v>
@@ -12886,19 +12886,19 @@
         <v>20796</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>14845</v>
+        <v>15061</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>28343</v>
+        <v>28589</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.05465830968148597</v>
+        <v>0.05465830968148598</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.03901775673066805</v>
+        <v>0.03958508420398657</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.07449551565171221</v>
+        <v>0.07514086655997695</v>
       </c>
     </row>
     <row r="46">
@@ -12915,19 +12915,19 @@
         <v>66365</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>57263</v>
+        <v>58764</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>73956</v>
+        <v>74340</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.6112352268689938</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.5273969698250212</v>
+        <v>0.5412261180343901</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.6811449272789986</v>
+        <v>0.684677224750747</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>264</v>
@@ -12936,19 +12936,19 @@
         <v>143958</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>131460</v>
+        <v>132385</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>155872</v>
+        <v>156958</v>
       </c>
       <c r="N46" s="6" t="n">
-        <v>0.5294623614653048</v>
+        <v>0.5294623614653047</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.4834956349033104</v>
+        <v>0.4869007709126636</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.5732813158651101</v>
+        <v>0.5772781943353048</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>367</v>
@@ -12957,19 +12957,19 @@
         <v>210323</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>194816</v>
+        <v>195580</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>224804</v>
+        <v>224189</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.5527981386633843</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.5120406148658729</v>
+        <v>0.5140479265670284</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.5908593278901381</v>
+        <v>0.5892418487576897</v>
       </c>
     </row>
     <row r="47">
@@ -12986,19 +12986,19 @@
         <v>5947</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2998</v>
+        <v>3036</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>11179</v>
+        <v>10220</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.05476840324354136</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.02761352842248453</v>
+        <v>0.02796490807814715</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.1029564199007272</v>
+        <v>0.09412675434669396</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>25</v>
@@ -13007,19 +13007,19 @@
         <v>12697</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>8605</v>
+        <v>8178</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>18630</v>
+        <v>18494</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.04669827065404174</v>
+        <v>0.04669827065404173</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.03164771097848058</v>
+        <v>0.03007768011472727</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.0685184321859727</v>
+        <v>0.06801772027426038</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>35</v>
@@ -13028,19 +13028,19 @@
         <v>18644</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>13500</v>
+        <v>13310</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>25249</v>
+        <v>26231</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.04900126951726891</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.03548261686766202</v>
+        <v>0.03498422990808394</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.0663634899299312</v>
+        <v>0.06894353856329233</v>
       </c>
     </row>
     <row r="48">
